--- a/Resuls.xlsx
+++ b/Resuls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenderClassification\PycharmProjects\GenderClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420E5ECA-3E54-4CDC-BA40-58CA4CD6BD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C7870-B9A7-4137-B82D-FC412A6A122C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C2DB84C8-6754-4F67-B572-6701582EC74A}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sensor</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>LC</t>
   </si>
   <si>
@@ -51,7 +48,74 @@
     <t>RC</t>
   </si>
   <si>
-    <t>Confusion Matrix</t>
+    <t>prediction accuracy on test set: 95.8451%
+Normalized confusion matrix
+[[0.97 0.03]
+ [0.05 0.95]]</t>
+  </si>
+  <si>
+    <t>LUA</t>
+  </si>
+  <si>
+    <t>Accuracy and Confusion Matrix</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 89.0578%
+Normalized confusion matrix
+[[0.93 0.07]
+ [0.15 0.85]]</t>
+  </si>
+  <si>
+    <t>RUA</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 86.7155%
+Normalized confusion matrix
+[[0.86 0.14]
+ [0.13 0.87]]</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Right Watch</t>
+  </si>
+  <si>
+    <t>Left Watch</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 95.7143%
+Normalized confusion matrix
+[[0.95 0.05]
+ [0.03 0.97]]</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 85.9539%
+Normalized confusion matrix
+[[0.84 0.16]
+ [0.12 0.88]]</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 88.9023%
+Normalized confusion matrix
+[[0.88 0.12]
+ [0.1  0.9 ]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prediction accuracy on test set: 89.0566%
+Normalized confusion matrix
+[[0.81 0.19]
+ [0.04 0.96]]
+</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 93.4627%
+Normalized confusion matrix
+[[0.93 0.07]
+ [0.06 0.94]]</t>
   </si>
 </sst>
 </file>
@@ -67,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,12 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,67 +480,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4017CD-8FB0-4837-92B0-AD2FED3D2B1D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1323245</v>
+      </c>
+      <c r="D2">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1223740</v>
+      </c>
+      <c r="D3">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.95656300000000005</v>
-      </c>
-      <c r="D2">
-        <v>1323245</v>
-      </c>
-      <c r="E2">
-        <v>5292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
-        <v>0.93871300000000002</v>
-      </c>
-      <c r="D3">
-        <v>1223740</v>
-      </c>
-      <c r="E3">
-        <v>4894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1233135</v>
+      </c>
+      <c r="D4">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1195040</v>
+      </c>
+      <c r="D5">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1224648</v>
+      </c>
+      <c r="D6">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1192476</v>
+      </c>
+      <c r="D7">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1036397</v>
+      </c>
+      <c r="D8">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>992959</v>
+      </c>
+      <c r="D9">
+        <v>3971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resuls.xlsx
+++ b/Resuls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenderClassification\PycharmProjects\GenderClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C7870-B9A7-4137-B82D-FC412A6A122C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F7FBB-D996-4C40-87B8-AAD98382C7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C2DB84C8-6754-4F67-B572-6701582EC74A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Sensor</t>
   </si>
@@ -116,6 +116,60 @@
 Normalized confusion matrix
 [[0.93 0.07]
  [0.06 0.94]]</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Brushing Teeth</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 97.2222% Normalized confusion matrix
+[[0.97 0.03]
+ [0.03 0.97]]</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 90.4762%
+Normalized confusion matrix
+[[0.79 0.21]
+ [0.03 0.97]]</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 79.2079%
+Normalized confusion matrix
+[[0.38 0.62]
+ [0.01 0.99]]</t>
+  </si>
+  <si>
+    <t>Osaka University Database</t>
+  </si>
+  <si>
+    <t>Three Sensors at Waist</t>
+  </si>
+  <si>
+    <t>Train accuracy: 0.9652715921401978
+Test accuracy: 0.7473309636116028</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Wavelet + CNN</t>
+  </si>
+  <si>
+    <t>Wavelet + RF</t>
+  </si>
+  <si>
+    <t>Accuracy on test set : 66%</t>
   </si>
 </sst>
 </file>
@@ -131,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,6 +226,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4017CD-8FB0-4837-92B0-AD2FED3D2B1D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,132 +554,306 @@
     <col min="2" max="2" width="40.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1323245</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>5292</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1223740</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>4894</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1233135</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>4932</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1195040</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4780</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1224648</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4898</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1192476</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>4769</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1036397</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4145</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>992959</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>3971</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>134172</v>
+      </c>
+      <c r="D13">
+        <v>536</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>131372</v>
+      </c>
+      <c r="D14">
+        <v>525</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>125534</v>
+      </c>
+      <c r="D15">
+        <v>502</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>702416</v>
+      </c>
+      <c r="D18">
+        <v>1404</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>702416</v>
+      </c>
+      <c r="D19">
+        <v>1404</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
